--- a/biology/Microbiologie/Radiophryidae/Radiophryidae.xlsx
+++ b/biology/Microbiologie/Radiophryidae/Radiophryidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Radiophryidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l’ordre des Astomatida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Radiophrya, dérivé du latin radio, « rayon », et du grec ancien οφρύς / ophrýs, « sourcil ⇒ cil ⇒ cilié », littéralement « cilié rayonnant », en référence à la structure de leur ciliation somatique « organisée en deux à trois systèmes sécants »[1], dont l'ensemble fait penser à des rayons.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Radiophrya, dérivé du latin radio, « rayon », et du grec ancien οφρύς / ophrýs, « sourcil ⇒ cil ⇒ cilié », littéralement « cilié rayonnant », en référence à la structure de leur ciliation somatique « organisée en deux à trois systèmes sécants », dont l'ensemble fait penser à des rayons.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Radiophryidae ont une taille, petite (&lt; 80 μm) à grande (&gt; 200 μm). Leur forme est généralement ovoïde, très aplatie, parfois allongée. Ils nagent librement dans leur milieu de vie. Leur ciliation somatique est holotriche (c. à d. uniforme), dense, organisée en deux, rarement trois, systèmes sécants antérieurs. Ils disposent, en position ventrale, de fibres cytosquelettiques qui s'étendent sur presque toute la longueur des kinés somatiques, avec, chez certaines espèces, une extrémité apicale dominée par un organite cytosquelettique proéminent en forme de « V » sur lequel convergent de nombreuses fibres. Ils sont souvent dotés de crochets, d'épines ou d'autres structures d'attache.
 Leur division se fait de façon anisotonique mais la caténulation (c. à d. la formation de petites chaines) est peu courante. 
-Leur macronoyau est ellipsoïde allongé ou en forme de ruban. Un micronoyau est présent. Leurs vacuoles contractiles sont disposées sur une ou deux rangées[1].
+Leur macronoyau est ellipsoïde allongé ou en forme de ruban. Un micronoyau est présent. Leurs vacuoles contractiles sont disposées sur une ou deux rangées.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Radiophryidae vivent dans les habitats d'eau douce, marins et terrestres en tant qu'endosymbiontes dans le tube digestif de vers annélides oligochètes, de quelques annélides polychètes et, parfois, de mollusques lamellibranches d'eau douce[1]. Leur répartition est mondiale[2] .
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Radiophryidae vivent dans les habitats d'eau douce, marins et terrestres en tant qu'endosymbiontes dans le tube digestif de vers annélides oligochètes, de quelques annélides polychètes et, parfois, de mollusques lamellibranches d'eau douce. Leur répartition est mondiale .
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (29 août 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (29 août 2023) :
 Acanthodiophrya de Puytorac &amp; Dragesco, 1968
 Anthonyella Delphy, 1936
 Cheissinophrya de Puytorac &amp; Dragesco, 1969
@@ -623,7 +643,7 @@
 Radiophrya Rossolimo, 1926 genre type
 Genre synonyme : Cheissinella Meier, 1954
 Espèce type : non spécifiée
-Selon Lynn (2010)[1] :
+Selon Lynn (2010) :
 Acanthodiophrya de Puytorac &amp; Dragesco, 1969
 Anthonyella Delphy, 1936
 Cheissiniophrya de Puytorac &amp; Dragesco, 1969
@@ -669,9 +689,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Radiophryidae de Puytorac, 1972[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Radiophryidae de Puytorac, 1972.
 </t>
         </is>
       </c>
